--- a/LearningApi/test/scaling features/precalculated_samples.xlsx
+++ b/LearningApi/test/scaling features/precalculated_samples.xlsx
@@ -495,7 +495,7 @@
     <row r="4" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F4">
         <f ca="1">-5 + RAND()*(10)</f>
-        <v>2.0683088014782527</v>
+        <v>-3.92096899065666</v>
       </c>
       <c r="K4" s="1">
         <v>4.1220384075237266</v>
@@ -544,7 +544,7 @@
     <row r="5" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F5">
         <f t="shared" ref="F5:F23" ca="1" si="1">-5 + RAND()*(10)</f>
-        <v>-1.4313803209855234</v>
+        <v>-2.8441083137178569</v>
       </c>
       <c r="K5" s="1">
         <v>7.9603529542250904</v>
@@ -593,7 +593,7 @@
     <row r="6" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9165806122412192</v>
+        <v>0.52307146189451625</v>
       </c>
       <c r="K6" s="1">
         <v>6.7975912845388962</v>
@@ -642,7 +642,7 @@
     <row r="7" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3009800460065932</v>
+        <v>-4.5067944006698815</v>
       </c>
       <c r="K7" s="1">
         <v>-7.9071933158837293</v>
@@ -669,7 +669,7 @@
     <row r="8" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1303969737755715E-2</v>
+        <v>-0.99496555157907451</v>
       </c>
       <c r="K8" s="1">
         <v>-7.0810893840211842</v>
@@ -696,7 +696,7 @@
     <row r="9" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10058854885411339</v>
+        <v>1.6077060064975424</v>
       </c>
       <c r="K9" s="1">
         <v>-4.0402294096139642</v>
@@ -723,7 +723,7 @@
     <row r="10" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4012940124306938</v>
+        <v>-2.0607401695169116</v>
       </c>
       <c r="K10" s="1">
         <v>-9.8641585965804062</v>
@@ -750,7 +750,7 @@
     <row r="11" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.71153127970659291</v>
+        <v>0.87939462423401338</v>
       </c>
       <c r="K11" s="1">
         <v>8.8308533996826597</v>
@@ -777,7 +777,7 @@
     <row r="12" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7692233212272299</v>
+        <v>-1.827111027845485</v>
       </c>
       <c r="K12" s="1">
         <v>-1.3059002892304896</v>
@@ -804,7 +804,7 @@
     <row r="13" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0481595959403096</v>
+        <v>-0.93852897717622064</v>
       </c>
       <c r="K13" s="1">
         <v>1.8402372657071311</v>
@@ -831,7 +831,7 @@
     <row r="14" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2679069093147177</v>
+        <v>-0.23528061343985218</v>
       </c>
       <c r="K14" s="1">
         <v>-5.7266798627901139</v>
@@ -858,7 +858,7 @@
     <row r="15" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7339964360171463</v>
+        <v>4.0915876763496826</v>
       </c>
       <c r="K15" s="1">
         <v>9.8818709589645302</v>
@@ -885,7 +885,7 @@
     <row r="16" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3899549401249516</v>
+        <v>3.4417652757317487</v>
       </c>
       <c r="K16" s="1">
         <v>7.6187393951895821</v>
@@ -912,7 +912,7 @@
     <row r="17" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.926049051275911</v>
+        <v>-0.23571697791956137</v>
       </c>
       <c r="K17" s="1">
         <v>-4.8319390345963438</v>
@@ -939,7 +939,7 @@
     <row r="18" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2046030501870364</v>
+        <v>3.1219023086361233</v>
       </c>
       <c r="K18" s="1">
         <v>-2.2049410920062691</v>
@@ -966,7 +966,7 @@
     <row r="19" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6954495104069629</v>
+        <v>4.2828730255147729</v>
       </c>
       <c r="K19" s="1">
         <v>5.1604236109227575</v>
@@ -993,7 +993,7 @@
     <row r="20" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F20">
         <f ca="1">-5 + RAND()*(10)</f>
-        <v>0.22310687429926368</v>
+        <v>4.8548660216790012</v>
       </c>
       <c r="K20" s="1">
         <v>1.3600885817292365</v>
@@ -1020,7 +1020,7 @@
     <row r="21" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7707472261712685</v>
+        <v>-4.8457845833692232</v>
       </c>
       <c r="K21" s="1">
         <v>2.7761160929760109E-2</v>
@@ -1047,7 +1047,7 @@
     <row r="22" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0493437615496823</v>
+        <v>-0.91551157597311583</v>
       </c>
       <c r="K22" s="1">
         <v>1.4859074598319424</v>
@@ -1074,7 +1074,7 @@
     <row r="23" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6176412190638647</v>
+        <v>2.2483240540339056</v>
       </c>
       <c r="K23" s="1">
         <v>6.4121332567504332</v>
@@ -1153,7 +1153,7 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
